--- a/tome_cheatsheet.xlsx
+++ b/tome_cheatsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>exon/</t>
   </si>
@@ -259,13 +259,19 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>read_tome_projection()</t>
+  </si>
+  <si>
+    <t>read_tome_projection_desc()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -309,6 +315,11 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -350,6 +361,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1062,15 +1074,17 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C40" s="2"/>
       <c r="F40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F41" t="s">
@@ -1079,12 +1093,13 @@
       <c r="G41" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>41</v>
+      <c r="H41" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F42" t="s">
@@ -1093,8 +1108,8 @@
       <c r="G42" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>41</v>
+      <c r="H42" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">

--- a/tome_cheatsheet.xlsx
+++ b/tome_cheatsheet.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12750"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tome structure" sheetId="1" r:id="rId1"/>
+    <sheet name="desc fields" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="172">
   <si>
     <t>exon/</t>
   </si>
@@ -56,9 +57,6 @@
     <t>gene_meta/</t>
   </si>
   <si>
-    <t>gene/</t>
-  </si>
-  <si>
     <t>mapping/</t>
   </si>
   <si>
@@ -354,13 +352,202 @@
   </si>
   <si>
     <t>Similar to saveRDS() and readRDS()</t>
+  </si>
+  <si>
+    <t>write_tome_exon_lengths()</t>
+  </si>
+  <si>
+    <t>write_tome_intron_lengths()</t>
+  </si>
+  <si>
+    <t>write_tome_gene_meta()</t>
+  </si>
+  <si>
+    <t>write_tome_gene_desc()</t>
+  </si>
+  <si>
+    <t>read_tome_gene_meta()</t>
+  </si>
+  <si>
+    <t>read_tome_gene_desc()</t>
+  </si>
+  <si>
+    <t>write_tome_mapping_desc()</t>
+  </si>
+  <si>
+    <t>write_tome_mapping()</t>
+  </si>
+  <si>
+    <t>read_tome_exon_lengths()</t>
+  </si>
+  <si>
+    <t>read_tome_intron_lengths()</t>
+  </si>
+  <si>
+    <t>read_tome_mapping()</t>
+  </si>
+  <si>
+    <t>read_tome_mapping_desc()</t>
+  </si>
+  <si>
+    <t>sample_meta/desc</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Any text</t>
+  </si>
+  <si>
+    <t>The base for each annotation in sample_meta/anno. E.g. for cluster_id, cluster_label, and cluster_color, this should be just "cluster".</t>
+  </si>
+  <si>
+    <t>A descriptive name used for drop-down menus in Shiny apps.</t>
+  </si>
+  <si>
+    <t>Must match column names in sample_meta/anno. Avoid dashes (-) and spaces.</t>
+  </si>
+  <si>
+    <t>The type of annotation</t>
+  </si>
+  <si>
+    <t>A descriptive group name used for grouping annotations in drop-down menus in Shiny apps.</t>
+  </si>
+  <si>
+    <t>Defined vocabulary. Must be one of: "cat","time","id", or "num"</t>
+  </si>
+  <si>
+    <t>genes/</t>
+  </si>
+  <si>
+    <t>stats/desc</t>
+  </si>
+  <si>
+    <t>The stats_name of the table in the .tome file.</t>
+  </si>
+  <si>
+    <t>A descriptive name to help users understand what's in the data</t>
+  </si>
+  <si>
+    <t>Must match the name of an object in stats/</t>
+  </si>
+  <si>
+    <t>match_rows</t>
+  </si>
+  <si>
+    <t>match_cols</t>
+  </si>
+  <si>
+    <t>"gene_name", "sample_name", or an annotation base from sample_meta/desc</t>
+  </si>
+  <si>
+    <t>If the stats table rows can be associated with gene names, sample names, or annotations, provide the matching base, "gene_name", or "sample_name".</t>
+  </si>
+  <si>
+    <t>If the stats table columns can be associated with gene names, sample names, or annotations, provide the matching base, "gene_name", or "sample_name".</t>
+  </si>
+  <si>
+    <t>mapping/desc</t>
+  </si>
+  <si>
+    <t>The mapping_name of the table in the .tome file.</t>
+  </si>
+  <si>
+    <t>Must match the name of an object in mapping/</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dend</t>
+  </si>
+  <si>
+    <t>The dend_name of the dendrogram that was used for mapping</t>
+  </si>
+  <si>
+    <t>Must match the name of an object in dend/</t>
+  </si>
+  <si>
+    <t>The date of the mapping (used for ordering)</t>
+  </si>
+  <si>
+    <t>Date class</t>
+  </si>
+  <si>
+    <t>dend/desc</t>
+  </si>
+  <si>
+    <t>The dend_name of the table in the .tome file.</t>
+  </si>
+  <si>
+    <t>Any text. Careful that annotations in the same group have exactly the same values. Can be NA for no grouping.</t>
+  </si>
+  <si>
+    <t>anno_base</t>
+  </si>
+  <si>
+    <t>The base of the annotation that mapping will match to in sample_meta/anno</t>
+  </si>
+  <si>
+    <t>must match a base in sample_meta/desc</t>
+  </si>
+  <si>
+    <t>projection/desc</t>
+  </si>
+  <si>
+    <t>The proj_name of the table in the .tome file.</t>
+  </si>
+  <si>
+    <t>Must match the name of an object in projection/</t>
+  </si>
+  <si>
+    <t>The number of dimensions for plotting.</t>
+  </si>
+  <si>
+    <t>Can be 2 or 3.</t>
+  </si>
+  <si>
+    <t>Global parameters</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>overwrite</t>
+  </si>
+  <si>
+    <t>set_scrattch.io_global_overwrite()</t>
+  </si>
+  <si>
+    <t>verbosity</t>
+  </si>
+  <si>
+    <t>set_scrattch.io_global_verbosity()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -400,6 +587,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -544,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -592,6 +785,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -892,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -904,215 +1110,184 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="9"/>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9"/>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9"/>
       <c r="E14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9"/>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1120,16 +1295,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1137,69 +1306,72 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E23" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1207,16 +1379,10 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1224,49 +1390,58 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1277,13 +1452,13 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1294,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1305,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,523 +1491,906 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="19"/>
+      <c r="C33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="19"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E35" t="s">
         <v>24</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="19"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="19"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="3" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>95</v>
+      <c r="B39" s="11"/>
+      <c r="C39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="4"/>
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="9"/>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="21"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="D41" s="19"/>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="4"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
-      <c r="B42" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="21"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="D42" s="19"/>
       <c r="E42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="9"/>
-      <c r="E43" t="s">
-        <v>24</v>
+      <c r="E43" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="20" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="19"/>
       <c r="E46" t="s">
         <v>24</v>
       </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="9"/>
+      <c r="B47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="19"/>
       <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s">
-        <v>96</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" t="s">
-        <v>97</v>
-      </c>
+      <c r="B48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="9"/>
-      <c r="E49" t="s">
-        <v>24</v>
-      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" t="s">
-        <v>98</v>
-      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="19"/>
+      <c r="B51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="9"/>
       <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" t="s">
-        <v>103</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
-      <c r="B52" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="19"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="9"/>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="19"/>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="19"/>
+      <c r="B54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="9"/>
       <c r="E54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="19"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="9"/>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="18" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="B57" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="21"/>
       <c r="D57" s="19"/>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="19"/>
+      <c r="B58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="9"/>
       <c r="E58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="15"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="19"/>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="H59" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
-      <c r="B60" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="9"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="19"/>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="16" t="s">
-        <v>72</v>
+      <c r="B61" s="23"/>
+      <c r="C61" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>39</v>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="16" t="s">
-        <v>36</v>
+      <c r="A62" s="10"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="D62" s="19"/>
-      <c r="E62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>39</v>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="9"/>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>